--- a/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
+++ b/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Članak Danom stupanja na snagu ovoga Zakona</t>
+          <t>Članak 168. Danom stupanja na snagu ovoga Zakona prestaje novine", br. 111/97, 13/98 i 24/01.).</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>168. prestaje važiti Zakon o športu ("Narodne</t>
+          <t>važiti Zakon o športu ("Narodne</t>
         </is>
       </c>
     </row>
@@ -446,10 +446,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>novine", br. 111/97, 13/98 i 24/01.).</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Članak 169. Ovaj Zakon stupa na snagu osmoga dana od dana objave</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>u Narodnim novinama.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -457,14 +461,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Članak</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>169.</t>
-        </is>
-      </c>
+          <t>KLASA: URBROJ: Zagreb,</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,47 +472,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ovaj Zakon stupa na snagu osmoga dana od</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dana objave u Narodnim novinama.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KLASA: URBROJ:</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Zagreb,</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
